--- a/Unity_ET_FrameWork/ET-Branch_V5.0/Excel/npcgen.xlsx
+++ b/Unity_ET_FrameWork/ET-Branch_V5.0/Excel/npcgen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OtherGitProjects\UFramework\Unity_ET_FrameWork\ET-Branch_V5.0\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF2496E-4CC4-48CF-B739-6D028CB04F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0634842-9B0D-40B5-B4AB-E1099F0987D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="0" windowWidth="21600" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="435" windowWidth="21600" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="npcgen" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="190">
   <si>
     <t>mNpcName</t>
   </si>
@@ -410,6 +410,258 @@
   </si>
   <si>
     <t>传送点，商店类型装备等级，等自定义参数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002023</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002051</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002052</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002038</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002049</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002050</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002012</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002041</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100007</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002039</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100044</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002006</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002033</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002017</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002030</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002022</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002021</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002043</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002044</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100008</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100009</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100010</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100011</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100012</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100014</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100013</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100015</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100016</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100017</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100019</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9101111</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002045</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4005002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4005003</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4005004</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4005005</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4005006</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4005007</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4005008</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4005009</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4005010</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4007001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4007002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4008001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4008002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4009001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4009002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4009003</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4009004</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4009005</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4009006</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4009007</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4009008</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4009009</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4010001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002036</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002037</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002032</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4002040</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9100006</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本传送</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级打怪打装备</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1365,12 +1617,12 @@
   <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
@@ -1542,8 +1794,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <v>4002023</v>
+      <c r="C9" t="s">
+        <v>127</v>
       </c>
       <c r="D9" t="s">
         <v>74</v>
@@ -1571,8 +1823,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <v>4002051</v>
+      <c r="C10" t="s">
+        <v>128</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1600,8 +1852,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <v>4002052</v>
+      <c r="C11" t="s">
+        <v>129</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1629,13 +1881,37 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>400123123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C13">
-        <v>4002038</v>
+      <c r="C13" t="s">
+        <v>130</v>
       </c>
       <c r="D13" t="s">
         <v>78</v>
@@ -1663,8 +1939,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C14">
-        <v>4002049</v>
+      <c r="C14" t="s">
+        <v>131</v>
       </c>
       <c r="D14" t="s">
         <v>82</v>
@@ -1692,8 +1968,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15">
-        <v>4002050</v>
+      <c r="C15" t="s">
+        <v>132</v>
       </c>
       <c r="D15" t="s">
         <v>84</v>
@@ -1726,8 +2002,8 @@
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <v>4002012</v>
+      <c r="C17" t="s">
+        <v>133</v>
       </c>
       <c r="D17" t="s">
         <v>86</v>
@@ -1784,8 +2060,8 @@
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C19">
-        <v>4002041</v>
+      <c r="C19" t="s">
+        <v>134</v>
       </c>
       <c r="D19" t="s">
         <v>92</v>
@@ -1813,8 +2089,8 @@
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <v>9100007</v>
+      <c r="C20" t="s">
+        <v>135</v>
       </c>
       <c r="D20" t="s">
         <v>99</v>
@@ -1842,8 +2118,8 @@
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>4002039</v>
+      <c r="C21" t="s">
+        <v>136</v>
       </c>
       <c r="D21" t="s">
         <v>80</v>
@@ -1876,8 +2152,8 @@
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <v>4002001</v>
+      <c r="C23" t="s">
+        <v>137</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -1913,8 +2189,8 @@
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C25">
-        <v>9100044</v>
+      <c r="C25" t="s">
+        <v>138</v>
       </c>
       <c r="D25" t="s">
         <v>81</v>
@@ -1942,8 +2218,8 @@
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C26">
-        <v>4002006</v>
+      <c r="C26" t="s">
+        <v>139</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1971,8 +2247,8 @@
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C27">
-        <v>4002033</v>
+      <c r="C27" t="s">
+        <v>140</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
@@ -2087,8 +2363,8 @@
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C31">
-        <v>4002017</v>
+      <c r="C31" t="s">
+        <v>141</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -2116,8 +2392,8 @@
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C32">
-        <v>4002030</v>
+      <c r="C32" t="s">
+        <v>142</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -2145,8 +2421,8 @@
       </c>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C33">
-        <v>4002022</v>
+      <c r="C33" t="s">
+        <v>143</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -2174,8 +2450,8 @@
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C34">
-        <v>4002021</v>
+      <c r="C34" t="s">
+        <v>144</v>
       </c>
       <c r="D34" t="s">
         <v>72</v>
@@ -2203,8 +2479,8 @@
       </c>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C35">
-        <v>4002043</v>
+      <c r="C35" t="s">
+        <v>145</v>
       </c>
       <c r="D35" t="s">
         <v>74</v>
@@ -2232,8 +2508,8 @@
       </c>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C36">
-        <v>4002044</v>
+      <c r="C36" t="s">
+        <v>146</v>
       </c>
       <c r="D36" t="s">
         <v>76</v>
@@ -2261,8 +2537,8 @@
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C37">
-        <v>9100008</v>
+      <c r="C37" t="s">
+        <v>147</v>
       </c>
       <c r="D37" t="s">
         <v>103</v>
@@ -2290,8 +2566,8 @@
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C38">
-        <v>9100009</v>
+      <c r="C38" t="s">
+        <v>148</v>
       </c>
       <c r="D38" t="s">
         <v>104</v>
@@ -2319,8 +2595,8 @@
       </c>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C39">
-        <v>9100010</v>
+      <c r="C39" t="s">
+        <v>149</v>
       </c>
       <c r="D39" t="s">
         <v>105</v>
@@ -2353,8 +2629,8 @@
       </c>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C41">
-        <v>9100011</v>
+      <c r="C41" t="s">
+        <v>150</v>
       </c>
       <c r="D41" t="s">
         <v>106</v>
@@ -2382,8 +2658,8 @@
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C42">
-        <v>9100012</v>
+      <c r="C42" t="s">
+        <v>151</v>
       </c>
       <c r="D42" t="s">
         <v>107</v>
@@ -2419,8 +2695,8 @@
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C44">
-        <v>9100014</v>
+      <c r="C44" t="s">
+        <v>152</v>
       </c>
       <c r="D44" t="s">
         <v>108</v>
@@ -2453,8 +2729,8 @@
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C46">
-        <v>9100013</v>
+      <c r="C46" t="s">
+        <v>153</v>
       </c>
       <c r="D46" t="s">
         <v>109</v>
@@ -2487,8 +2763,8 @@
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C48">
-        <v>9100015</v>
+      <c r="C48" t="s">
+        <v>154</v>
       </c>
       <c r="D48" t="s">
         <v>110</v>
@@ -2516,8 +2792,8 @@
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C49">
-        <v>9100016</v>
+      <c r="C49" t="s">
+        <v>155</v>
       </c>
       <c r="D49" t="s">
         <v>111</v>
@@ -2545,8 +2821,8 @@
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C50">
-        <v>9100017</v>
+      <c r="C50" t="s">
+        <v>156</v>
       </c>
       <c r="D50" t="s">
         <v>112</v>
@@ -2574,8 +2850,8 @@
       </c>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C51">
-        <v>9100019</v>
+      <c r="C51" t="s">
+        <v>157</v>
       </c>
       <c r="D51" t="s">
         <v>113</v>
@@ -2608,8 +2884,8 @@
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C53">
-        <v>9101111</v>
+      <c r="C53" t="s">
+        <v>158</v>
       </c>
       <c r="D53" t="s">
         <v>114</v>
@@ -2637,8 +2913,8 @@
       </c>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C54">
-        <v>4002045</v>
+      <c r="C54" t="s">
+        <v>159</v>
       </c>
       <c r="D54" t="s">
         <v>77</v>
@@ -2703,8 +2979,8 @@
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C57">
-        <v>4005002</v>
+      <c r="C57" t="s">
+        <v>160</v>
       </c>
       <c r="D57" t="s">
         <v>33</v>
@@ -2732,8 +3008,8 @@
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C58">
-        <v>4005003</v>
+      <c r="C58" t="s">
+        <v>161</v>
       </c>
       <c r="D58" t="s">
         <v>35</v>
@@ -2761,8 +3037,8 @@
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C59">
-        <v>4005004</v>
+      <c r="C59" t="s">
+        <v>162</v>
       </c>
       <c r="D59" t="s">
         <v>37</v>
@@ -2790,8 +3066,8 @@
       </c>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C60">
-        <v>4005005</v>
+      <c r="C60" t="s">
+        <v>163</v>
       </c>
       <c r="D60" t="s">
         <v>38</v>
@@ -2819,8 +3095,8 @@
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C61">
-        <v>4005006</v>
+      <c r="C61" t="s">
+        <v>164</v>
       </c>
       <c r="D61" t="s">
         <v>40</v>
@@ -2848,8 +3124,8 @@
       </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C62">
-        <v>4005007</v>
+      <c r="C62" t="s">
+        <v>165</v>
       </c>
       <c r="D62" t="s">
         <v>42</v>
@@ -2877,8 +3153,8 @@
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C63">
-        <v>4005008</v>
+      <c r="C63" t="s">
+        <v>166</v>
       </c>
       <c r="D63" t="s">
         <v>44</v>
@@ -2906,8 +3182,8 @@
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C64">
-        <v>4005009</v>
+      <c r="C64" t="s">
+        <v>167</v>
       </c>
       <c r="D64" t="s">
         <v>46</v>
@@ -2935,8 +3211,8 @@
       </c>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C65">
-        <v>4005010</v>
+      <c r="C65" t="s">
+        <v>168</v>
       </c>
       <c r="D65" t="s">
         <v>47</v>
@@ -2975,8 +3251,8 @@
       </c>
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C67">
-        <v>4007001</v>
+      <c r="C67" t="s">
+        <v>169</v>
       </c>
       <c r="D67" t="s">
         <v>48</v>
@@ -3004,8 +3280,8 @@
       </c>
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C68">
-        <v>4007002</v>
+      <c r="C68" t="s">
+        <v>170</v>
       </c>
       <c r="D68" t="s">
         <v>51</v>
@@ -3044,8 +3320,8 @@
       </c>
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C70">
-        <v>4008001</v>
+      <c r="C70" t="s">
+        <v>171</v>
       </c>
       <c r="D70" t="s">
         <v>53</v>
@@ -3073,8 +3349,8 @@
       </c>
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C71">
-        <v>4008002</v>
+      <c r="C71" t="s">
+        <v>172</v>
       </c>
       <c r="D71" t="s">
         <v>56</v>
@@ -3102,8 +3378,8 @@
       </c>
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C72">
-        <v>4009001</v>
+      <c r="C72" t="s">
+        <v>173</v>
       </c>
       <c r="D72" t="s">
         <v>58</v>
@@ -3131,8 +3407,8 @@
       </c>
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C73">
-        <v>4009002</v>
+      <c r="C73" t="s">
+        <v>174</v>
       </c>
       <c r="D73" t="s">
         <v>58</v>
@@ -3160,8 +3436,8 @@
       </c>
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C74">
-        <v>4009003</v>
+      <c r="C74" t="s">
+        <v>175</v>
       </c>
       <c r="D74" t="s">
         <v>58</v>
@@ -3189,8 +3465,8 @@
       </c>
     </row>
     <row r="75" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C75">
-        <v>4009004</v>
+      <c r="C75" t="s">
+        <v>176</v>
       </c>
       <c r="D75" t="s">
         <v>58</v>
@@ -3218,8 +3494,8 @@
       </c>
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C76">
-        <v>4009005</v>
+      <c r="C76" t="s">
+        <v>177</v>
       </c>
       <c r="D76" t="s">
         <v>58</v>
@@ -3247,8 +3523,8 @@
       </c>
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C77">
-        <v>4009006</v>
+      <c r="C77" t="s">
+        <v>178</v>
       </c>
       <c r="D77" t="s">
         <v>58</v>
@@ -3276,8 +3552,8 @@
       </c>
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C78">
-        <v>4009007</v>
+      <c r="C78" t="s">
+        <v>179</v>
       </c>
       <c r="D78" t="s">
         <v>58</v>
@@ -3305,8 +3581,8 @@
       </c>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C79">
-        <v>4009008</v>
+      <c r="C79" t="s">
+        <v>180</v>
       </c>
       <c r="D79" t="s">
         <v>58</v>
@@ -3334,8 +3610,8 @@
       </c>
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C80">
-        <v>4009009</v>
+      <c r="C80" t="s">
+        <v>181</v>
       </c>
       <c r="D80" t="s">
         <v>58</v>
@@ -3363,8 +3639,8 @@
       </c>
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C81">
-        <v>4010001</v>
+      <c r="C81" t="s">
+        <v>182</v>
       </c>
       <c r="D81" t="s">
         <v>69</v>
@@ -3414,8 +3690,8 @@
       </c>
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C84">
-        <v>4002036</v>
+      <c r="C84" t="s">
+        <v>183</v>
       </c>
       <c r="D84" t="s">
         <v>88</v>
@@ -3443,8 +3719,8 @@
       </c>
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C85">
-        <v>4002037</v>
+      <c r="C85" t="s">
+        <v>184</v>
       </c>
       <c r="D85" t="s">
         <v>90</v>
@@ -3491,8 +3767,8 @@
       </c>
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C88">
-        <v>4002032</v>
+      <c r="C88" t="s">
+        <v>185</v>
       </c>
       <c r="D88" t="s">
         <v>94</v>
@@ -3520,8 +3796,8 @@
       </c>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C89">
-        <v>4002040</v>
+      <c r="C89" t="s">
+        <v>186</v>
       </c>
       <c r="D89" t="s">
         <v>97</v>
@@ -3568,8 +3844,8 @@
       </c>
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C92">
-        <v>9100006</v>
+      <c r="C92" t="s">
+        <v>187</v>
       </c>
       <c r="D92" t="s">
         <v>100</v>
